--- a/Data/EC/NIT-9005556242.xlsx
+++ b/Data/EC/NIT-9005556242.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DBAB5C4-5748-47D7-8CED-90A0A618B8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6DAA58-4BC5-4A1C-AB83-CDD58A76599E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C2A88AB6-7F8A-4EC9-A547-33A2B0368157}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B986C79-CE48-4949-88BF-1323732FA878}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,142 +65,142 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1051418588</t>
+  </si>
+  <si>
+    <t>BREIDYS DAVID MARTINEZ ALMEIDA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1047470775</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL PATERNINA ORTEGA</t>
+  </si>
+  <si>
+    <t>1143400807</t>
+  </si>
+  <si>
+    <t>ROGERS DEL RIO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1047460830</t>
+  </si>
+  <si>
+    <t>ROBINSON IRIARTE RAMIREZ</t>
+  </si>
+  <si>
+    <t>1045487188</t>
+  </si>
+  <si>
+    <t>MELKIN ANDRES LOPEZ MARRUGO</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>73209611</t>
   </si>
   <si>
     <t>EDWIN MANUEL ALTAMAR JARAMILLO</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1047437707</t>
+  </si>
+  <si>
+    <t>ALEIDER TORRES CARABALLO</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1051418588</t>
-  </si>
-  <si>
-    <t>BREIDYS DAVID MARTINEZ ALMEIDA</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1047470775</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL PATERNINA ORTEGA</t>
-  </si>
-  <si>
-    <t>1143400807</t>
-  </si>
-  <si>
-    <t>ROGERS DEL RIO RAMIREZ</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1047460830</t>
-  </si>
-  <si>
-    <t>ROBINSON IRIARTE RAMIREZ</t>
-  </si>
-  <si>
-    <t>1045487188</t>
-  </si>
-  <si>
-    <t>MELKIN ANDRES LOPEZ MARRUGO</t>
-  </si>
-  <si>
-    <t>1047437707</t>
-  </si>
-  <si>
-    <t>ALEIDER TORRES CARABALLO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -299,7 +299,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -312,9 +314,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -514,23 +514,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,10 +558,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B288FC-D92C-7B6B-AF87-5FD7E74EF66C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6C3671-B136-B41F-4D0A-E1DD5DC9EFF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D1DD8B-307A-42C1-8637-CD7B43DBA9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9994A2-6CCD-4746-849A-E3166079664C}">
   <dimension ref="B2:J82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1143,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27226</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,19 +1157,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1180,19 +1180,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1203,19 +1203,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1226,19 +1226,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1255,13 +1255,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1272,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1295,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1318,19 +1318,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1341,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1373,10 +1373,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1387,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1410,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1433,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1456,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1485,13 +1485,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1502,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1525,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1548,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1571,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1600,13 +1600,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1617,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1640,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1663,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
-        <v>35512</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>877803</v>
+        <v>689455</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1686,13 +1686,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>27578</v>
@@ -1709,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>27578</v>
@@ -1732,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
         <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>689455</v>
+        <v>737717</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1755,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>27578</v>
@@ -1778,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>27578</v>
@@ -1801,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>27578</v>
@@ -1824,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
         <v>27578</v>
@@ -1847,19 +1847,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
         <v>27578</v>
       </c>
       <c r="G47" s="18">
-        <v>689455</v>
+        <v>737717</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1870,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>27578</v>
@@ -1893,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F49" s="18">
         <v>27578</v>
@@ -1916,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F50" s="18">
         <v>27578</v>
@@ -1939,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
         <v>27578</v>
@@ -1962,19 +1962,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G52" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1985,19 +1985,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>35112</v>
       </c>
       <c r="G53" s="18">
-        <v>689455</v>
+        <v>877802</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2008,19 +2008,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G54" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2031,19 +2031,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G55" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2054,19 +2054,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G56" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2077,19 +2077,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G57" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2100,19 +2100,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G58" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2123,19 +2123,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G59" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2146,19 +2146,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G60" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2169,19 +2169,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G61" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2192,19 +2192,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G62" s="18">
-        <v>908526</v>
+        <v>887802</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2215,19 +2215,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G63" s="18">
-        <v>908526</v>
+        <v>887802</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2238,19 +2238,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G64" s="18">
-        <v>908526</v>
+        <v>887802</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2261,19 +2261,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G65" s="18">
-        <v>908526</v>
+        <v>887802</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2284,19 +2284,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G66" s="18">
-        <v>908526</v>
+        <v>887802</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2307,19 +2307,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G67" s="18">
-        <v>908526</v>
+        <v>887802</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2330,19 +2330,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G68" s="18">
-        <v>908526</v>
+        <v>887802</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2353,19 +2353,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F69" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G69" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2376,19 +2376,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G70" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2399,19 +2399,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F71" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G71" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2422,19 +2422,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F72" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G72" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2445,19 +2445,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F73" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G73" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2468,19 +2468,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D74" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E74" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G74" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2491,19 +2491,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F75" s="18">
-        <v>27578</v>
+        <v>35512</v>
       </c>
       <c r="G75" s="18">
-        <v>689455</v>
+        <v>887802</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2514,19 +2514,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D76" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="F76" s="24">
-        <v>35112</v>
+        <v>27226</v>
       </c>
       <c r="G76" s="24">
-        <v>877802</v>
+        <v>887802</v>
       </c>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
